--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125B88E7-0640-4080-BFA8-3866B6E24FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD44A7-4CBF-4F82-953A-F33758F5302D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16392" yWindow="0" windowWidth="6744" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hex_Dec_Bin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">Consigne </t>
   </si>
@@ -72,6 +73,12 @@
   </si>
   <si>
     <t>Consigne dist d</t>
+  </si>
+  <si>
+    <t>Décimal</t>
+  </si>
+  <si>
+    <t>Hexadécimal</t>
   </si>
 </sst>
 </file>
@@ -391,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -529,4 +536,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB51A4F7-7582-4569-A88C-DC61C5905402}">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="str">
+        <f>DEC2HEX(B2)</f>
+        <v>FFFFFFFFFF</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD44A7-4CBF-4F82-953A-F33758F5302D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125B88E7-0640-4080-BFA8-3866B6E24FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16392" yWindow="0" windowWidth="6744" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hex_Dec_Bin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t xml:space="preserve">Consigne </t>
   </si>
@@ -73,12 +72,6 @@
   </si>
   <si>
     <t>Consigne dist d</t>
-  </si>
-  <si>
-    <t>Décimal</t>
-  </si>
-  <si>
-    <t>Hexadécimal</t>
   </si>
 </sst>
 </file>
@@ -398,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -536,36 +529,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB51A4F7-7582-4569-A88C-DC61C5905402}">
-  <dimension ref="A2:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="str">
-        <f>DEC2HEX(B2)</f>
-        <v>FFFFFFFFFF</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125B88E7-0640-4080-BFA8-3866B6E24FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE0BD88-56F5-47E1-87C6-EFE440AED096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16392" yWindow="0" windowWidth="6744" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,6 +526,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <f>A25*B24/A24</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE0BD88-56F5-47E1-87C6-EFE440AED096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F47F251-82FF-432C-963A-5E77F4A03465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t xml:space="preserve">Consigne </t>
   </si>
@@ -53,25 +53,37 @@
     <t>Odo finaux</t>
   </si>
   <si>
-    <t>Consigne vit gauche</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>Consigne dist gauche</t>
-  </si>
-  <si>
-    <t>Xconsigne_dist_gauche 3406</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Xconsigne_vit_gauche -120</t>
-  </si>
-  <si>
-    <t>Odo</t>
-  </si>
-  <si>
-    <t>Consigne dist d</t>
+    <t>Angle cons</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Pour</t>
+  </si>
+  <si>
+    <t>Largeur du robot</t>
+  </si>
+  <si>
+    <t>Distance qu'il va parcourir</t>
+  </si>
+  <si>
+    <t>Conversion en tick</t>
+  </si>
+  <si>
+    <t>Size whell diameter</t>
+  </si>
+  <si>
+    <t>Résolution roue codeus</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>Périmètre cercle avec D = Largeur du robot</t>
   </si>
 </sst>
 </file>
@@ -87,15 +99,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,12 +133,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,18 +464,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -410,16 +491,67 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>50</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>5000</v>
       </c>
       <c r="C3">
         <v>5000</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2">
+        <v>50</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2048</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="K4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2">
+        <v>80</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -430,8 +562,36 @@
         <f>-B5</f>
         <v>-2250</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>250</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <f>L2*L3/L4</f>
+        <v>1280</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <f>PI()*H5</f>
+        <v>785.39816339744823</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -443,106 +603,28 @@
         <f>C5+C3</f>
         <v>2750</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <f>H6*H2/360</f>
+        <v>109.08307824964558</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>4310</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>3406</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <v>4730</v>
-      </c>
+      <c r="H8" s="5">
+        <f>H7*(H4/(2*PI()*H3/2))</f>
+        <v>1422.2222222222219</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>-120</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>510</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <f>F13-F14*5</f>
-        <v>4006</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <f>I13-I14*5</f>
-        <v>5330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <f>B13+(B15)*5</f>
-        <v>6860</v>
-      </c>
-      <c r="F17">
-        <f>F15+F14*5</f>
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <f>A25*B24/A24</f>
-        <v>3</v>
-      </c>
-    </row>
+    <row r="9" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F47F251-82FF-432C-963A-5E77F4A03465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF4222-2FC8-4A39-84AE-A1967D6C7BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>14</v>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -566,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>13</v>
@@ -576,7 +576,7 @@
       </c>
       <c r="L5" s="5">
         <f>L2*L3/L4</f>
-        <v>1280</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -585,7 +585,7 @@
       </c>
       <c r="H6" s="2">
         <f>PI()*H5</f>
-        <v>785.39816339744823</v>
+        <v>706.85834705770344</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>13</v>
@@ -608,7 +608,7 @@
       </c>
       <c r="H7" s="2">
         <f>H6*H2/360</f>
-        <v>109.08307824964558</v>
+        <v>176.71458676442586</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>13</v>
@@ -620,7 +620,7 @@
       </c>
       <c r="H8" s="5">
         <f>H7*(H4/(2*PI()*H3/2))</f>
-        <v>1422.2222222222219</v>
+        <v>2304</v>
       </c>
       <c r="I8" s="1"/>
     </row>

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF4222-2FC8-4A39-84AE-A1967D6C7BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B81951-A6D4-4444-85D0-5E251D4669D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t xml:space="preserve">Consigne </t>
   </si>
@@ -84,12 +84,52 @@
   </si>
   <si>
     <t>Périmètre cercle avec D = Largeur du robot</t>
+  </si>
+  <si>
+    <t>coordonne x</t>
+  </si>
+  <si>
+    <t>coordonne y</t>
+  </si>
+  <si>
+    <t>theta fin</t>
+  </si>
+  <si>
+    <t>Hypothenuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theta rot </t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Theta fin rotation</t>
+  </si>
+  <si>
+    <t>Calcul x y theta</t>
+  </si>
+  <si>
+    <t>Delta de ce que j'ai</t>
+  </si>
+  <si>
+    <t>Ce que j'obtiens</t>
+  </si>
+  <si>
+    <t>Pourcentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +228,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,24 +524,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -510,7 +571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>5000</v>
       </c>
@@ -533,7 +594,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -551,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -579,7 +640,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
@@ -591,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -614,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
@@ -624,7 +685,149 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14">
+        <f>3/640</f>
+        <v>4.6874999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1">
+        <v>101</v>
+      </c>
+      <c r="L15" s="13">
+        <f>K15/H15</f>
+        <v>1.01</v>
+      </c>
+      <c r="M15" s="12">
+        <f>(1-L15)*100</f>
+        <v>-1.0000000000000009</v>
+      </c>
+      <c r="P15">
+        <f>P14*100</f>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1">
+        <v>101</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" ref="L16:L17" si="0">K16/H16</f>
+        <v>1.01</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" ref="M16:M17" si="1">(1-L16)*100</f>
+        <v>-1.0000000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2">
+        <v>90</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1">
+        <v>99</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="1"/>
+        <v>-10.000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="10">
+        <f>SQRT(H15*H15+H16*H16)</f>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="11">
+        <f>ATAN2(H15,H16)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="8"/>
+      <c r="H21" s="10">
+        <f>DEGREES(H20)</f>
+        <v>45</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="10">
+        <f>H17-H21</f>
+        <v>45</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B81951-A6D4-4444-85D0-5E251D4669D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C47C51-5564-4F53-8DEA-C2EB607F060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t xml:space="preserve">Consigne </t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>Pourcentage</t>
+  </si>
+  <si>
+    <t>Tension alim avec test</t>
+  </si>
+  <si>
+    <t>Tension en cours</t>
+  </si>
+  <si>
+    <t>Coeff en</t>
   </si>
 </sst>
 </file>
@@ -526,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>14</v>
@@ -627,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>225</v>
+        <v>193.55</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>13</v>
@@ -637,7 +646,7 @@
       </c>
       <c r="L5" s="5">
         <f>L2*L3/L4</f>
-        <v>2304</v>
+        <v>1981.9354838709678</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -646,7 +655,7 @@
       </c>
       <c r="H6" s="2">
         <f>PI()*H5</f>
-        <v>706.85834705770344</v>
+        <v>608.05525810230449</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>13</v>
@@ -669,7 +678,7 @@
       </c>
       <c r="H7" s="2">
         <f>H6*H2/360</f>
-        <v>176.71458676442586</v>
+        <v>152.01381452557612</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>13</v>
@@ -681,13 +690,35 @@
       </c>
       <c r="H8" s="5">
         <f>H7*(H4/(2*PI()*H3/2))</f>
-        <v>2304</v>
+        <v>1981.952</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
     <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <f>B12/B13</f>
+        <v>1.3</v>
+      </c>
       <c r="G14" s="9" t="s">
         <v>24</v>
       </c>
@@ -716,15 +747,15 @@
         <v>13</v>
       </c>
       <c r="K15" s="1">
-        <v>101</v>
+        <v>100.28</v>
       </c>
       <c r="L15" s="13">
         <f>K15/H15</f>
-        <v>1.01</v>
+        <v>1.0027999999999999</v>
       </c>
       <c r="M15" s="12">
         <f>(1-L15)*100</f>
-        <v>-1.0000000000000009</v>
+        <v>-0.27999999999999137</v>
       </c>
       <c r="P15">
         <f>P14*100</f>
@@ -742,15 +773,15 @@
         <v>13</v>
       </c>
       <c r="K16" s="1">
-        <v>101</v>
+        <v>101.26900000000001</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" ref="L16:L17" si="0">K16/H16</f>
-        <v>1.01</v>
+        <v>1.0126900000000001</v>
       </c>
       <c r="M16" s="12">
         <f t="shared" ref="M16:M17" si="1">(1-L16)*100</f>
-        <v>-1.0000000000000009</v>
+        <v>-1.269000000000009</v>
       </c>
     </row>
     <row r="17" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -764,15 +795,15 @@
         <v>22</v>
       </c>
       <c r="K17" s="1">
-        <v>99</v>
+        <v>90.09</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>1.0010000000000001</v>
       </c>
       <c r="M17" s="12">
         <f t="shared" si="1"/>
-        <v>-10.000000000000009</v>
+        <v>-0.10000000000001119</v>
       </c>
     </row>
     <row r="18" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C47C51-5564-4F53-8DEA-C2EB607F060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7260B485-0804-4A92-9678-CD960D715E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>22</v>
@@ -797,13 +797,13 @@
       <c r="K17" s="1">
         <v>90.09</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>1.0010000000000001</v>
-      </c>
-      <c r="M17" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>-0.10000000000001119</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -852,7 +852,7 @@
       </c>
       <c r="H23" s="10">
         <f>H17-H21</f>
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>22</v>

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7260B485-0804-4A92-9678-CD960D715E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EE28C4-534F-4266-B3AC-08B1BFBCA12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t xml:space="preserve">Consigne </t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>Coeff en</t>
+  </si>
+  <si>
+    <t>consigne rot gauche</t>
+  </si>
+  <si>
+    <t>consigne rot droite</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>Consigne gauche cc</t>
+  </si>
+  <si>
+    <t>Consigne droite cc</t>
   </si>
 </sst>
 </file>
@@ -533,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="2">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>13</v>
@@ -751,11 +766,11 @@
       </c>
       <c r="L15" s="13">
         <f>K15/H15</f>
-        <v>1.0027999999999999</v>
+        <v>1.5917460317460317</v>
       </c>
       <c r="M15" s="12">
         <f>(1-L15)*100</f>
-        <v>-0.27999999999999137</v>
+        <v>-59.17460317460317</v>
       </c>
       <c r="P15">
         <f>P14*100</f>
@@ -767,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="H16" s="2">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>13</v>
@@ -777,11 +792,11 @@
       </c>
       <c r="L16" s="13">
         <f t="shared" ref="L16:L17" si="0">K16/H16</f>
-        <v>1.0126900000000001</v>
+        <v>1.7164237288135593</v>
       </c>
       <c r="M16" s="12">
         <f t="shared" ref="M16:M17" si="1">(1-L16)*100</f>
-        <v>-1.269000000000009</v>
+        <v>-71.642372881355925</v>
       </c>
     </row>
     <row r="17" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -789,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>22</v>
@@ -797,13 +812,13 @@
       <c r="K17" s="1">
         <v>90.09</v>
       </c>
-      <c r="L17" s="13" t="e">
+      <c r="L17" s="13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="12" t="e">
+        <v>0.99</v>
+      </c>
+      <c r="M17" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0000000000000009</v>
       </c>
     </row>
     <row r="18" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -815,7 +830,7 @@
       </c>
       <c r="H19" s="10">
         <f>SQRT(H15*H15+H16*H16)</f>
-        <v>141.42135623730951</v>
+        <v>86.313382508160345</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>13</v>
@@ -827,7 +842,7 @@
       </c>
       <c r="H20" s="11">
         <f>ATAN2(H15,H16)</f>
-        <v>0.78539816339744828</v>
+        <v>0.75262301899337258</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>21</v>
@@ -837,7 +852,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="10">
         <f>DEGREES(H20)</f>
-        <v>45</v>
+        <v>43.122122552714643</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>22</v>
@@ -852,13 +867,56 @@
       </c>
       <c r="H23" s="10">
         <f>H17-H21</f>
-        <v>-45</v>
+        <v>47.877877447285357</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="7:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <f>(($H$26)-($H$27))/2</f>
+        <v>59.75</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <f>H28</f>
+        <v>59.75</v>
+      </c>
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <f>-H28</f>
+        <v>-59.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EE28C4-534F-4266-B3AC-08B1BFBCA12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CF3F0-1B76-45A0-B2DF-1B15E9650236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>13</v>
@@ -766,11 +766,11 @@
       </c>
       <c r="L15" s="13">
         <f>K15/H15</f>
-        <v>1.5917460317460317</v>
+        <v>1.1142222222222222</v>
       </c>
       <c r="M15" s="12">
         <f>(1-L15)*100</f>
-        <v>-59.17460317460317</v>
+        <v>-11.422222222222222</v>
       </c>
       <c r="P15">
         <f>P14*100</f>
@@ -782,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="H16" s="2">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>13</v>
@@ -792,11 +792,11 @@
       </c>
       <c r="L16" s="13">
         <f t="shared" ref="L16:L17" si="0">K16/H16</f>
-        <v>1.7164237288135593</v>
+        <v>0.63293125000000006</v>
       </c>
       <c r="M16" s="12">
         <f t="shared" ref="M16:M17" si="1">(1-L16)*100</f>
-        <v>-71.642372881355925</v>
+        <v>36.706874999999997</v>
       </c>
     </row>
     <row r="17" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="2">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>22</v>
@@ -812,13 +812,13 @@
       <c r="K17" s="1">
         <v>90.09</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="M17" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -830,7 +830,7 @@
       </c>
       <c r="H19" s="10">
         <f>SQRT(H15*H15+H16*H16)</f>
-        <v>86.313382508160345</v>
+        <v>183.5755975068582</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>13</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="H20" s="11">
         <f>ATAN2(H15,H16)</f>
-        <v>0.75262301899337258</v>
+        <v>1.0584068664841588</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>21</v>
@@ -852,7 +852,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="10">
         <f>DEGREES(H20)</f>
-        <v>43.122122552714643</v>
+        <v>60.642246457208728</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>22</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="H23" s="10">
         <f>H17-H21</f>
-        <v>47.877877447285357</v>
+        <v>-60.642246457208728</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>22</v>

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CF3F0-1B76-45A0-B2DF-1B15E9650236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B9C0E-FB7B-40DD-979F-1A8ED4749CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t xml:space="preserve">Consigne </t>
   </si>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>Consigne droite cc</t>
+  </si>
+  <si>
+    <t>Dacc</t>
+  </si>
+  <si>
+    <t>Dcroi</t>
+  </si>
+  <si>
+    <t>Dcc</t>
+  </si>
+  <si>
+    <t>Hyp</t>
+  </si>
+  <si>
+    <t>Hyp act</t>
+  </si>
+  <si>
+    <t>Dist parc</t>
   </si>
 </sst>
 </file>
@@ -550,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,7 +817,7 @@
         <v>36.706874999999997</v>
       </c>
     </row>
-    <row r="17" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="9" t="s">
         <v>18</v>
       </c>
@@ -821,10 +839,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
@@ -836,7 +854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
@@ -848,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="8"/>
       <c r="H21" s="10">
         <f>DEGREES(H20)</f>
@@ -858,10 +876,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="7:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <f>$B$22*1/3</f>
+        <v>100</v>
+      </c>
       <c r="G23" s="4" t="s">
         <v>23</v>
       </c>
@@ -873,8 +904,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="7:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:B25" si="2">$B$22*1/3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>31</v>
       </c>
@@ -882,7 +930,13 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
       <c r="G27" t="s">
         <v>32</v>
       </c>
@@ -890,7 +944,14 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <f>B27-B23</f>
+        <v>200</v>
+      </c>
       <c r="G28" t="s">
         <v>33</v>
       </c>
@@ -899,7 +960,7 @@
         <v>59.75</v>
       </c>
     </row>
-    <row r="29" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
         <v>34</v>
       </c>
@@ -908,7 +969,7 @@
         <v>59.75</v>
       </c>
     </row>
-    <row r="30" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>35</v>
       </c>

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B9C0E-FB7B-40DD-979F-1A8ED4749CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E43FE-C833-400F-8C62-CCC3E645F3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t xml:space="preserve">Consigne </t>
   </si>
@@ -162,6 +163,48 @@
   </si>
   <si>
     <t>Dist parc</t>
+  </si>
+  <si>
+    <t>X voulue</t>
+  </si>
+  <si>
+    <t>Y voulue</t>
+  </si>
+  <si>
+    <t>X actuel</t>
+  </si>
+  <si>
+    <t>Y actuel</t>
+  </si>
+  <si>
+    <t>Theta a parcourir</t>
+  </si>
+  <si>
+    <t>X au carré</t>
+  </si>
+  <si>
+    <t>Y au carré</t>
+  </si>
+  <si>
+    <t>Tetha actuel</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theta </t>
+  </si>
+  <si>
+    <t>degres</t>
+  </si>
+  <si>
+    <t>J'obtiens expérimentalement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour une consigne de coordonnée suivante : </t>
   </si>
 </sst>
 </file>
@@ -253,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +329,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,6 +347,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>718617</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>150520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DFC17F-AA9D-DB77-0CAB-2187400BACF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1432560"/>
+          <a:ext cx="3096057" cy="181000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>737670</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D2DEC3-F21F-18CB-F50E-9C9E801BC154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1805940"/>
+          <a:ext cx="3115110" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>680512</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D14B773-095A-C97F-639B-AD5C56145593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2194560"/>
+          <a:ext cx="3057952" cy="190527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9591058-0224-868B-6403-6881488A0F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2499360"/>
+          <a:ext cx="3191320" cy="276264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,6 +1102,12 @@
       <c r="I21" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21">
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -884,6 +1117,12 @@
         <v>300</v>
       </c>
       <c r="I22" s="1"/>
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22">
+        <v>200</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -903,6 +1142,12 @@
       <c r="I23" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23">
+        <v>182</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -912,6 +1157,12 @@
         <f t="shared" ref="B24:B25" si="2">$B$22*1/3</f>
         <v>100</v>
       </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -921,6 +1172,13 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
+      <c r="K25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25">
+        <f>(L21-L23)^2</f>
+        <v>324</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
@@ -929,6 +1187,13 @@
       <c r="H26">
         <v>59.5</v>
       </c>
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26">
+        <f>(L22-L24)^2</f>
+        <v>129.96000000000012</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -943,6 +1208,12 @@
       <c r="H27">
         <v>-60</v>
       </c>
+      <c r="K27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -968,6 +1239,13 @@
         <f>H28</f>
         <v>59.75</v>
       </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29">
+        <f>SQRT($L$25+$L$26)</f>
+        <v>21.306337085477647</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
@@ -977,8 +1255,95 @@
         <f>-H28</f>
         <v>-59.75</v>
       </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30">
+        <f>ATAN2($L$25,$L$26)</f>
+        <v>0.38146386437242458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f>DEGREES(L30)-L27</f>
+        <v>-23.143730534709221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32">
+        <f>ATAN2($L$26,$L$25)</f>
+        <v>1.1893324624224719</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f>DEGREES(L32)-L27</f>
+        <v>23.143730534709221</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDAA7C3-1C16-46CF-91F2-0BA39539FEFD}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E43FE-C833-400F-8C62-CCC3E645F3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFD024-56F7-4263-9B76-812C356C4169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="G12" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDAA7C3-1C16-46CF-91F2-0BA39539FEFD}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CodeBaseRoulanteOTA/Calcul divers.xlsx
+++ b/CodeBaseRoulanteOTA/Calcul divers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFD024-56F7-4263-9B76-812C356C4169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B1629C-229F-4CAD-8DFB-9534112D4E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t xml:space="preserve">Consigne </t>
   </si>
@@ -165,46 +165,55 @@
     <t>Dist parc</t>
   </si>
   <si>
-    <t>X voulue</t>
-  </si>
-  <si>
-    <t>Y voulue</t>
-  </si>
-  <si>
-    <t>X actuel</t>
-  </si>
-  <si>
-    <t>Y actuel</t>
-  </si>
-  <si>
-    <t>Theta a parcourir</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theta </t>
+  </si>
+  <si>
+    <t>degres</t>
+  </si>
+  <si>
+    <t>J'obtiens expérimentalement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour une consigne de coordonnée suivante : </t>
+  </si>
+  <si>
+    <t>x cons</t>
+  </si>
+  <si>
+    <t>y cons</t>
+  </si>
+  <si>
+    <t>x actu</t>
+  </si>
+  <si>
+    <t>x cons - x actu</t>
+  </si>
+  <si>
+    <t>y cons - y actu</t>
+  </si>
+  <si>
+    <t>theta robot</t>
+  </si>
+  <si>
+    <t>erreur orient</t>
+  </si>
+  <si>
+    <t>y act</t>
   </si>
   <si>
     <t>X au carré</t>
   </si>
   <si>
-    <t>Y au carré</t>
-  </si>
-  <si>
-    <t>Tetha actuel</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theta </t>
-  </si>
-  <si>
-    <t>degres</t>
-  </si>
-  <si>
-    <t>J'obtiens expérimentalement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour une consigne de coordonnée suivante : </t>
+    <t>y au carré</t>
+  </si>
+  <si>
+    <t>Erreur dist</t>
   </si>
 </sst>
 </file>
@@ -793,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G12" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="G41" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,12 +1111,6 @@
       <c r="I21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21">
-        <v>200</v>
-      </c>
     </row>
     <row r="22" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -1117,12 +1120,6 @@
         <v>300</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="K22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22">
-        <v>200</v>
-      </c>
     </row>
     <row r="23" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -1142,12 +1139,6 @@
       <c r="I23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23">
-        <v>182</v>
-      </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1157,12 +1148,6 @@
         <f t="shared" ref="B24:B25" si="2">$B$22*1/3</f>
         <v>100</v>
       </c>
-      <c r="K24" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24">
-        <v>188.6</v>
-      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1172,13 +1157,6 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K25" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25">
-        <f>(L21-L23)^2</f>
-        <v>324</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
@@ -1187,13 +1165,6 @@
       <c r="H26">
         <v>59.5</v>
       </c>
-      <c r="K26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26">
-        <f>(L22-L24)^2</f>
-        <v>129.96000000000012</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1208,12 +1179,6 @@
       <c r="H27">
         <v>-60</v>
       </c>
-      <c r="K27" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27">
-        <v>45</v>
-      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1239,13 +1204,6 @@
         <f>H28</f>
         <v>59.75</v>
       </c>
-      <c r="K29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29">
-        <f>SQRT($L$25+$L$26)</f>
-        <v>21.306337085477647</v>
-      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
@@ -1255,33 +1213,123 @@
         <f>-H28</f>
         <v>-59.75</v>
       </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30">
-        <f>ATAN2($L$25,$L$26)</f>
-        <v>0.38146386437242458</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L31">
-        <f>DEGREES(L30)-L27</f>
-        <v>-23.143730534709221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32">
-        <f>ATAN2($L$26,$L$25)</f>
-        <v>1.1893324624224719</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L33">
-        <f>DEGREES(L32)-L27</f>
-        <v>23.143730534709221</v>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41">
+        <f>H36-H38</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42">
+        <f>H37-H39</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44">
+        <f>H41*H41</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45">
+        <f>H42*H42</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46">
+        <f>SQRT(H44+H45)</f>
+        <v>141.42135623730951</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>-1.0389999999999999</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <f>RADIANS(H48)</f>
+        <v>-1.8133970928221083E-2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50">
+        <f>ATAN2(H41,H42)-H49</f>
+        <v>0.80353213432566939</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <f>DEGREES(H50)</f>
+        <v>46.039000000000001</v>
+      </c>
+      <c r="I51" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1301,12 +1349,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1317,7 +1365,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1328,18 +1376,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>45</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
